--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Results\Structured\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vervl\OneDrive\Documenten\GitHub\Generative-Mesh-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8EC1CB-83E2-4F56-A94C-0C72EA061ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D8EC1CB-83E2-4F56-A94C-0C72EA061ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FADA4520-29E8-4448-ADC9-286C5E5BE840}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63F46CF2-6E84-4E31-9B1B-58A6F63D29AC}"/>
   </bookViews>
@@ -771,6 +771,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -795,7 +796,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,42 +1133,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="51"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1225,7 +1225,7 @@
       <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="23"/>
       <c r="H4" s="19" t="s">
         <v>5</v>
@@ -1260,7 +1260,7 @@
       <c r="E5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="23"/>
       <c r="H5" s="19" t="s">
         <v>9</v>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vervl\OneDrive\Documenten\GitHub\Generative-Mesh-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D8EC1CB-83E2-4F56-A94C-0C72EA061ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FADA4520-29E8-4448-ADC9-286C5E5BE840}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{9D8EC1CB-83E2-4F56-A94C-0C72EA061ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{41FED7F9-4F3E-4B55-AC94-A19D575664FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63F46CF2-6E84-4E31-9B1B-58A6F63D29AC}"/>
+    <workbookView xWindow="1815" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{63F46CF2-6E84-4E31-9B1B-58A6F63D29AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="76">
   <si>
     <t>SingleLayerNetwork</t>
   </si>
@@ -205,6 +205,72 @@
   </si>
   <si>
     <t>Radius 4</t>
+  </si>
+  <si>
+    <t>FullNetwork</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>[64, 128,  128],  [128, 64, 64]
+[128,256, 256], [256,128, 128]</t>
+  </si>
+  <si>
+    <t>[128,  256, LAT], [128, 256, 64]
+[64, 128, LAT], [64, 128,  LAT]</t>
+  </si>
+  <si>
+    <t>[64, 128,  128],  [128, 64, 32]
+[128,256, 256], [256,128, 64]</t>
+  </si>
+  <si>
+    <t>[64, 128,  128],  [128, 64, 16]
+[128,256, 256], [256,128, 32]</t>
+  </si>
+  <si>
+    <t>[64, 128,  128],  [128, 64, 8]
+[128,256, 256], [256,128, 16]</t>
+  </si>
+  <si>
+    <t>[128,  256, LAT], [128, 256, 32]
+[64, 128, LAT], [64, 128,  LAT]</t>
+  </si>
+  <si>
+    <t>[128,  256, LAT], [128, 256, 16]
+[64, 128, LAT], [64, 128,  LAT]</t>
+  </si>
+  <si>
+    <t>[128,  256, LAT], [128, 256, 8]
+[64, 128, LAT], [64, 128,  LAT]</t>
+  </si>
+  <si>
+    <t>LAT: optimal one layer latent size
+Only global loss</t>
+  </si>
+  <si>
+    <t>LAT: optimal one layer latent size
+Layer per layer loss</t>
+  </si>
+  <si>
+    <t>[64, 128,  128],  [128, 64, 8]
+[128,256, 256], [256,128, 3]</t>
+  </si>
+  <si>
+    <t>[128,  256, 4], [128, 256, 8]
+[64, 128, 4], [64, 128,  4]</t>
+  </si>
+  <si>
+    <t>Small Latent Space 1</t>
+  </si>
+  <si>
+    <t>Small Latent Space 2</t>
+  </si>
+  <si>
+    <t>Only global loss</t>
+  </si>
+  <si>
+    <t>Layer per layer loss</t>
   </si>
 </sst>
 </file>
@@ -298,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -444,21 +510,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,17 +697,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="2"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,55 +802,53 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,6 +874,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1112,16 +1207,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243EF482-068D-47D9-9789-34EBFAAB28FF}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="50.77734375" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -1133,42 +1227,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="46" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="52"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1189,7 +1283,7 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1225,8 +1319,8 @@
       <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
@@ -1260,8 +1354,8 @@
       <c r="E5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1295,8 +1389,8 @@
       <c r="E6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="19" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1424,8 @@
       <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="23"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="20" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1450,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1381,7 +1475,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1510,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="19" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1545,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1580,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="19" t="s">
         <v>22</v>
       </c>
@@ -1511,7 +1605,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1536,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1606,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1735,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="19" t="s">
         <v>27</v>
       </c>
@@ -1666,7 +1760,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1691,7 +1785,7 @@
         <v>44</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="19" t="s">
         <v>28</v>
       </c>
@@ -1726,7 +1820,7 @@
         <v>44</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="19" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1855,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="19" t="s">
         <v>30</v>
       </c>
@@ -1796,7 +1890,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="19" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1915,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -1846,7 +1940,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="17"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="19" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="19" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +2010,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="19" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="19" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +2070,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -1991,7 +2085,7 @@
       <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2001,7 +2095,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="19" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="19" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="F31" s="17"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="19" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="17"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="19" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +2225,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="21"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -2155,8 +2249,8 @@
       <c r="E34" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H34" s="19" t="s">
@@ -2196,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="F35" s="17"/>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H35" s="19" t="s">
@@ -2236,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="19" t="s">
@@ -2276,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="19" t="s">
@@ -2316,7 +2410,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H38" s="19" t="s">
@@ -2356,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="17"/>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H39" s="19" t="s">
@@ -2380,13 +2474,13 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="21"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -2394,91 +2488,91 @@
       <c r="L40" s="14"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:14" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    <row r="41" spans="1:14" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>1</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="28" t="s">
+      <c r="D41" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="31">
         <v>1</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="30"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>1</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="28" t="s">
+      <c r="D42" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="31">
         <v>1</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="30"/>
+      <c r="M42" s="29"/>
       <c r="N42" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="31">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -2487,17 +2581,17 @@
       <c r="D43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="28" t="s">
+      <c r="E43" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="31">
         <v>2</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -2509,16 +2603,16 @@
       <c r="L43" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="30"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>2</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -2527,17 +2621,17 @@
       <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="28" t="s">
+      <c r="E44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="31">
         <v>2</v>
       </c>
       <c r="J44" s="8" t="s">
@@ -2549,16 +2643,16 @@
       <c r="L44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M44" s="30"/>
+      <c r="M44" s="29"/>
       <c r="N44" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -2567,17 +2661,17 @@
       <c r="D45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="28" t="s">
+      <c r="E45" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="31">
         <v>2</v>
       </c>
       <c r="J45" s="8" t="s">
@@ -2589,16 +2683,16 @@
       <c r="L45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M45" s="30"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2607,17 +2701,17 @@
       <c r="D46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="28" t="s">
+      <c r="E46" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="36">
         <v>2</v>
       </c>
       <c r="J46" s="6" t="s">
@@ -2629,43 +2723,289 @@
       <c r="L46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M46" s="39"/>
+      <c r="M46" s="38"/>
       <c r="N46" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="42"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="56"/>
+    </row>
+    <row r="55" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2680,11 +3020,12 @@
     <row r="76" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
